--- a/doc/Смета.xlsx
+++ b/doc/Смета.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
   <si>
     <t xml:space="preserve">позиция</t>
   </si>
@@ -172,21 +172,29 @@
     <t xml:space="preserve">Arduino Pro Micro 3.3V</t>
   </si>
   <si>
-    <t xml:space="preserve">итого</t>
+    <t xml:space="preserve">макетная плата</t>
+  </si>
+  <si>
+    <t xml:space="preserve">провода папа папа 30 см</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -208,6 +216,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -258,7 +267,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -284,6 +293,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -364,13 +377,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D27" activeCellId="0" sqref="D27"/>
+      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
@@ -992,21 +1005,59 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="5"/>
+      <c r="A28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>150</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="5"/>
-    </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="5"/>
+      <c r="A29" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B31" s="0" t="n">
-        <f aca="false">SUM(B2:B30)</f>
-        <v>11728</v>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="7" t="n">
+        <f aca="false">SUM(B2:B36)</f>
+        <v>12456</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Смета.xlsx
+++ b/doc/Смета.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
   <si>
     <t xml:space="preserve">позиция</t>
   </si>
@@ -178,16 +178,54 @@
     <t xml:space="preserve">провода папа папа 30 см</t>
   </si>
   <si>
-    <t xml:space="preserve">Итого</t>
+    <t xml:space="preserve">28.11.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 шт. 1N4744A (1 Вт, 15 В) стабилитрон</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Понижающий DC-DC преобразователь MP1584EN, 2 штуки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Провода-перемычки DuPont 40шт 10см Папа-Папа Arduino, Raspberry Pi, STM32, NodeMCU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Беспаечная макетная плата (breadboard) MB-102, 830 точек, для Arduino и прочих устройст</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arduino NANO V3.0 Atmega328 CH340 Type-C (пины не припаяны</t>
+  </si>
+  <si>
+    <t xml:space="preserve">модуль АЦП ads1115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INA219 Модуль MCU-219 датчика тока и напряжения с i2C интерфейсом для Arduino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Адаптер подключения датчика температуры DS18B20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20шт Керамический конденсатор 104 жёлтый 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Распределительная коробка ABS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Регулятор напряжения и тока понижающий DC-DC XL4015E1 5А для заряда литий ионного АКБ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Повышающий регулируемый DC-DC преобразователь XL6009E1 Uвх.5 - 32, Uвых.5 - 35 В 4А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10 шт., Конденсатор электролитический 25В-470мкФ (470uF-25V, LowESR, -40+105C, 8x12мм)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -296,7 +334,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,13 +415,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H37"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A37" activeCellId="0" sqref="A37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
@@ -1003,6 +1041,9 @@
       <c r="B27" s="0" t="n">
         <v>621</v>
       </c>
+      <c r="C27" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="5" t="s">
@@ -1011,6 +1052,9 @@
       <c r="B28" s="0" t="n">
         <v>150</v>
       </c>
+      <c r="C28" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="5" t="s">
@@ -1019,6 +1063,9 @@
       <c r="B29" s="0" t="n">
         <v>160</v>
       </c>
+      <c r="C29" s="0" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="5" t="s">
@@ -1050,14 +1097,194 @@
       <c r="B31" s="0" t="n">
         <v>280</v>
       </c>
+      <c r="C31" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>199</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>244</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>332</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>265</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>291</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B37" s="7" t="n">
-        <f aca="false">SUM(B2:B36)</f>
-        <v>12456</v>
+        <v>288</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>857</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>454</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>235</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>234</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>912</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>219</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>164</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>208</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="n">
+        <f aca="false">SUM(B2:B47)</f>
+        <v>17496</v>
       </c>
     </row>
   </sheetData>

--- a/doc/Смета.xlsx
+++ b/doc/Смета.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t xml:space="preserve">позиция</t>
   </si>
@@ -218,6 +218,12 @@
   </si>
   <si>
     <t xml:space="preserve">10 шт., Конденсатор электролитический 25В-470мкФ (470uF-25V, LowESR, -40+105C, 8x12мм)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">производство на заводе</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07.12.2025</t>
   </si>
 </sst>
 </file>
@@ -418,10 +424,10 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="71.83"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.52"/>
@@ -1281,10 +1287,21 @@
         <v>52</v>
       </c>
     </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>3306</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="n">
         <f aca="false">SUM(B2:B47)</f>
-        <v>17496</v>
+        <v>20802</v>
       </c>
     </row>
   </sheetData>
